--- a/氣象性能評估工具V2/data/obs/2016-06-29_T2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/2016-06-29_T2_obs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="216">
   <si>
     <t>times</t>
   </si>
@@ -91,12 +91,12 @@
     <t>恆春</t>
   </si>
   <si>
+    <t>22.2</t>
+  </si>
+  <si>
     <t>2016-06-29-00</t>
   </si>
   <si>
-    <t>22.2</t>
-  </si>
-  <si>
     <t>26.3</t>
   </si>
   <si>
@@ -160,12 +160,12 @@
     <t>28.8</t>
   </si>
   <si>
+    <t>21.8</t>
+  </si>
+  <si>
     <t>2016-06-29-01</t>
   </si>
   <si>
-    <t>21.8</t>
-  </si>
-  <si>
     <t>26.2</t>
   </si>
   <si>
@@ -208,12 +208,12 @@
     <t>30.7</t>
   </si>
   <si>
+    <t>21.1</t>
+  </si>
+  <si>
     <t>2016-06-29-02</t>
   </si>
   <si>
-    <t>21.1</t>
-  </si>
-  <si>
     <t>23.0</t>
   </si>
   <si>
@@ -247,12 +247,12 @@
     <t>30.4</t>
   </si>
   <si>
+    <t>21.6</t>
+  </si>
+  <si>
     <t>2016-06-29-03</t>
   </si>
   <si>
-    <t>21.6</t>
-  </si>
-  <si>
     <t>23.1</t>
   </si>
   <si>
@@ -319,12 +319,12 @@
     <t>29.3</t>
   </si>
   <si>
+    <t>23.4</t>
+  </si>
+  <si>
     <t>2016-06-29-06</t>
   </si>
   <si>
-    <t>23.4</t>
-  </si>
-  <si>
     <t>24.3</t>
   </si>
   <si>
@@ -349,12 +349,12 @@
     <t>31.6</t>
   </si>
   <si>
+    <t>23.9</t>
+  </si>
+  <si>
     <t>2016-06-29-07</t>
   </si>
   <si>
-    <t>23.9</t>
-  </si>
-  <si>
     <t>25.5</t>
   </si>
   <si>
@@ -505,12 +505,12 @@
     <t>16.3</t>
   </si>
   <si>
+    <t>25.1</t>
+  </si>
+  <si>
     <t>2016-06-29-12</t>
   </si>
   <si>
-    <t>25.1</t>
-  </si>
-  <si>
     <t>32.8</t>
   </si>
   <si>
@@ -526,12 +526,12 @@
     <t>32.9</t>
   </si>
   <si>
+    <t>24.4</t>
+  </si>
+  <si>
     <t>2016-06-29-13</t>
   </si>
   <si>
-    <t>24.4</t>
-  </si>
-  <si>
     <t>31.1</t>
   </si>
   <si>
@@ -616,12 +616,12 @@
     <t>20.0</t>
   </si>
   <si>
+    <t>22.1</t>
+  </si>
+  <si>
     <t>2016-06-29-21</t>
   </si>
   <si>
-    <t>22.1</t>
-  </si>
-  <si>
     <t>25.4</t>
   </si>
   <si>
@@ -646,10 +646,10 @@
     <t>5.6</t>
   </si>
   <si>
+    <t>21.4</t>
+  </si>
+  <si>
     <t>2016-06-29-23</t>
-  </si>
-  <si>
-    <t>21.4</t>
   </si>
   <si>
     <t>22.6</t>
@@ -668,6 +668,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd-hh"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -697,8 +700,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1077,11 +1081,11 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1154,11 +1158,11 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
         <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>50</v>
@@ -1231,11 +1235,11 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
         <v>64</v>
-      </c>
-      <c r="B4" t="s">
-        <v>65</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -1308,11 +1312,11 @@
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
         <v>77</v>
-      </c>
-      <c r="B5" t="s">
-        <v>78</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
@@ -1385,11 +1389,11 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>86</v>
@@ -1462,7 +1466,7 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B7" t="s">
@@ -1539,11 +1543,11 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" t="s">
         <v>101</v>
-      </c>
-      <c r="B8" t="s">
-        <v>102</v>
       </c>
       <c r="C8" t="s">
         <v>55</v>
@@ -1616,11 +1620,11 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
         <v>111</v>
-      </c>
-      <c r="B9" t="s">
-        <v>112</v>
       </c>
       <c r="C9" t="s">
         <v>56</v>
@@ -1693,7 +1697,7 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B10" t="s">
@@ -1770,7 +1774,7 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B11" t="s">
@@ -1847,7 +1851,7 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B12" t="s">
@@ -1924,7 +1928,7 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B13" t="s">
@@ -2001,11 +2005,11 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" t="s">
         <v>163</v>
-      </c>
-      <c r="B14" t="s">
-        <v>164</v>
       </c>
       <c r="C14" t="s">
         <v>137</v>
@@ -2078,11 +2082,11 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" t="s">
         <v>170</v>
-      </c>
-      <c r="B15" t="s">
-        <v>171</v>
       </c>
       <c r="C15" t="s">
         <v>110</v>
@@ -2155,7 +2159,7 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B16" t="s">
@@ -2232,7 +2236,7 @@
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B17" t="s">
@@ -2309,7 +2313,7 @@
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B18" t="s">
@@ -2386,7 +2390,7 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B19" t="s">
@@ -2429,7 +2433,7 @@
         <v>104</v>
       </c>
       <c r="O19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P19" t="s">
         <v>187</v>
@@ -2463,7 +2467,7 @@
       </c>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B20" t="s">
@@ -2473,7 +2477,7 @@
         <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E20" t="s">
         <v>76</v>
@@ -2540,17 +2544,17 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E21" t="s">
         <v>119</v>
@@ -2583,7 +2587,7 @@
         <v>68</v>
       </c>
       <c r="O21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P21" t="s">
         <v>194</v>
@@ -2617,7 +2621,7 @@
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B22" t="s">
@@ -2694,11 +2698,11 @@
       </c>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23" t="s">
         <v>200</v>
-      </c>
-      <c r="B23" t="s">
-        <v>201</v>
       </c>
       <c r="C23" t="s">
         <v>202</v>
@@ -2771,17 +2775,17 @@
       </c>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E24" t="s">
         <v>96</v>
@@ -2848,11 +2852,11 @@
       </c>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B25" t="s">
         <v>210</v>
-      </c>
-      <c r="B25" t="s">
-        <v>211</v>
       </c>
       <c r="C25" t="s">
         <v>203</v>
